--- a/sofaplayer/Serie_A/Torino_stats.xlsx
+++ b/sofaplayer/Serie_A/Torino_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>341143</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7666666666667</v>
+        <v>6.7263157894737</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>1113</v>
+        <v>1203</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>5.0016</v>
+        <v>5.0191</v>
       </c>
       <c r="L2" t="n">
-        <v>222.6</v>
+        <v>240.6</v>
       </c>
       <c r="M2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N2" t="n">
         <v>18</v>
@@ -1068,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>11.904761904762</v>
+        <v>11.627906976744</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.57554963</v>
+        <v>0.57685149</v>
       </c>
       <c r="AB2" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
@@ -1113,19 +1113,19 @@
         <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AF2" t="n">
-        <v>73.423423423423</v>
+        <v>72.01646090535</v>
       </c>
       <c r="AG2" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AJ2" t="n">
         <v>56</v>
@@ -1134,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="AL2" t="n">
-        <v>50</v>
+        <v>45.454545454545</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -1149,19 +1149,19 @@
         <v>9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT2" t="n">
         <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
+        <v>51.724137931034</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>69</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>38.121546961326</v>
+      </c>
+      <c r="BC2" t="n">
         <v>50</v>
       </c>
-      <c r="BA2" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>38.728323699422</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>48</v>
-      </c>
       <c r="BD2" t="n">
-        <v>45.714285714286</v>
+        <v>44.642857142857</v>
       </c>
       <c r="BE2" t="n">
         <v>19</v>
       </c>
       <c r="BF2" t="n">
-        <v>27.941176470588</v>
+        <v>27.536231884058</v>
       </c>
       <c r="BG2" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="BH2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BJ2" t="n">
         <v>8</v>
@@ -1221,22 +1221,22 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>121.8</v>
+        <v>127.8</v>
       </c>
       <c r="BR2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS2" t="n">
         <v>5</v>
       </c>
       <c r="BT2" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CA2" t="n">
         <v>11</v>
       </c>
       <c r="CB2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CC2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CD2" t="n">
         <v>5</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CK2" t="n">
         <v>2</v>
@@ -1311,16 +1311,16 @@
         <v>9</v>
       </c>
       <c r="CS2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CT2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU2" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="CV2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DA2" t="n">
         <v>5</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="DG2" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>856737</v>
       </c>
       <c r="E3" t="n">
-        <v>6.6142857142857</v>
+        <v>6.6133333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>475</v>
+        <v>520</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.36072178</v>
+        <v>0.37928878</v>
       </c>
       <c r="AB3" t="n">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
@@ -1469,40 +1469,40 @@
         <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AF3" t="n">
-        <v>72.222222222222</v>
+        <v>74.096385542169</v>
       </c>
       <c r="AG3" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>35.714285714286</v>
+        <v>37.5</v>
       </c>
       <c r="AM3" t="n">
         <v>2</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.333333333333</v>
+        <v>11.111111111111</v>
       </c>
       <c r="AO3" t="n">
         <v>1</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ3" t="n">
         <v>2</v>
@@ -1511,10 +1511,10 @@
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
@@ -1532,19 +1532,19 @@
         <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>37.5</v>
+        <v>35.294117647059</v>
       </c>
       <c r="BA3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BB3" t="n">
-        <v>48.275862068966</v>
+        <v>46.739130434783</v>
       </c>
       <c r="BC3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD3" t="n">
-        <v>51.351351351351</v>
+        <v>49.367088607595</v>
       </c>
       <c r="BE3" t="n">
         <v>4</v>
@@ -1553,7 +1553,7 @@
         <v>30.769230769231</v>
       </c>
       <c r="BG3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BH3" t="n">
         <v>12</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>92.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="BR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>2</v>
       </c>
       <c r="CB3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CD3" t="n">
         <v>2</v>
@@ -1667,13 +1667,13 @@
         <v>3</v>
       </c>
       <c r="CS3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CU3" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="CV3" t="n">
         <v>9</v>
@@ -1688,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB3" t="n">
-        <v>57.142857142857</v>
+        <v>59.090909090909</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="DG3" t="n">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>38162</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4833333333333</v>
+        <v>6.5052631578947</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4317</v>
+        <v>2.6029</v>
       </c>
       <c r="L4" t="n">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="M4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>5.2631578947368</v>
+        <v>4.7619047619048</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.20597546</v>
+        <v>0.21638616</v>
       </c>
       <c r="AB4" t="n">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1825,28 +1825,28 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="AF4" t="n">
-        <v>70.92198581560299</v>
+        <v>70.77922077922101</v>
       </c>
       <c r="AG4" t="n">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AH4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AI4" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="n">
         <v>6</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>2</v>
@@ -1873,43 +1873,43 @@
         <v>10</v>
       </c>
       <c r="AU4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
         <v>4</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>3</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>30</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BA4" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BB4" t="n">
-        <v>47.368421052632</v>
+        <v>48.453608247423</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
-        <v>44.444444444444</v>
+        <v>45.652173913043</v>
       </c>
       <c r="BE4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BF4" t="n">
-        <v>50</v>
+        <v>50.980392156863</v>
       </c>
       <c r="BG4" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="BH4" t="n">
         <v>8</v>
@@ -1918,7 +1918,7 @@
         <v>17</v>
       </c>
       <c r="BJ4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK4" t="n">
         <v>0</v>
@@ -1933,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>116.7</v>
+        <v>123.6</v>
       </c>
       <c r="BR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS4" t="n">
         <v>2</v>
       </c>
       <c r="BT4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CA4" t="n">
         <v>4</v>
@@ -1975,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="CC4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CD4" t="n">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CK4" t="n">
         <v>3</v>
@@ -2023,7 +2023,7 @@
         <v>6</v>
       </c>
       <c r="CS4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CT4" t="n">
         <v>6</v>
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="CZ4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DA4" t="n">
         <v>1</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="DG4" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>773409</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7347826086957</v>
+        <v>6.7375</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>1405</v>
+        <v>1450</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>4.2262</v>
       </c>
       <c r="L6" t="n">
-        <v>351.25</v>
+        <v>362.5</v>
       </c>
       <c r="M6" t="n">
         <v>43</v>
@@ -2525,40 +2525,40 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.3399713</v>
+        <v>1.34902836</v>
       </c>
       <c r="AB6" t="n">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="AC6" t="n">
         <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AF6" t="n">
-        <v>76.470588235294</v>
+        <v>76.225490196078</v>
       </c>
       <c r="AG6" t="n">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="AH6" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AJ6" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>77.142857142857</v>
+        <v>76.31578947368401</v>
       </c>
       <c r="AM6" t="n">
         <v>1</v>
@@ -2603,31 +2603,31 @@
         <v>48</v>
       </c>
       <c r="BA6" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="BB6" t="n">
-        <v>39.416058394161</v>
+        <v>39.716312056738</v>
       </c>
       <c r="BC6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BD6" t="n">
-        <v>43.421052631579</v>
+        <v>44.155844155844</v>
       </c>
       <c r="BE6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BF6" t="n">
-        <v>34.426229508197</v>
+        <v>34.375</v>
       </c>
       <c r="BG6" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="BH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI6" t="n">
         <v>11</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>10</v>
       </c>
       <c r="BJ6" t="n">
         <v>6</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>154.9</v>
+        <v>161.7</v>
       </c>
       <c r="BR6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS6" t="n">
         <v>5</v>
       </c>
       <c r="BT6" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>16</v>
       </c>
       <c r="CC6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CD6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CS6" t="n">
         <v>25</v>
@@ -2741,10 +2741,10 @@
         <v>10</v>
       </c>
       <c r="CU6" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="CV6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="DA6" t="n">
         <v>6</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="DG6" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1493157</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6333333333333</v>
+        <v>6.6</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0.2099</v>
       </c>
       <c r="L7" t="n">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -2881,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01359151</v>
+        <v>0.01361176</v>
       </c>
       <c r="AB7" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2893,16 +2893,16 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>66.666666666667</v>
+        <v>64.705882352941</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -2956,19 +2956,19 @@
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA7" t="n">
         <v>5</v>
       </c>
       <c r="BB7" t="n">
-        <v>31.25</v>
+        <v>29.411764705882</v>
       </c>
       <c r="BC7" t="n">
         <v>3</v>
       </c>
       <c r="BD7" t="n">
-        <v>30</v>
+        <v>27.272727272727</v>
       </c>
       <c r="BE7" t="n">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BH7" t="n">
         <v>4</v>
@@ -3007,97 +3007,97 @@
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>39.8</v>
+        <v>46.2</v>
       </c>
       <c r="BR7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT7" t="n">
         <v>6</v>
       </c>
-      <c r="BS7" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS7" t="n">
         <v>5</v>
       </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>4</v>
-      </c>
       <c r="CT7" t="n">
         <v>2</v>
       </c>
       <c r="CU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV7" t="n">
         <v>4</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>1016788</v>
       </c>
       <c r="E8" t="n">
-        <v>6.7619047619048</v>
+        <v>6.7454545454545</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
         <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>1534</v>
+        <v>1570</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>2.8368</v>
       </c>
       <c r="L8" t="n">
-        <v>511.33333333333</v>
+        <v>523.33333333333</v>
       </c>
       <c r="M8" t="n">
         <v>28</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.24640539</v>
+        <v>1.26435289</v>
       </c>
       <c r="AB8" t="n">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="AC8" t="n">
         <v>3</v>
@@ -3249,22 +3249,22 @@
         <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AF8" t="n">
-        <v>76.222596964587</v>
+        <v>75.833333333333</v>
       </c>
       <c r="AG8" t="n">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="AH8" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AI8" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AJ8" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -3294,7 +3294,7 @@
         <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -3315,31 +3315,31 @@
         <v>61.111111111111</v>
       </c>
       <c r="BA8" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BB8" t="n">
-        <v>54.583333333333</v>
+        <v>54.545454545455</v>
       </c>
       <c r="BC8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BD8" t="n">
-        <v>40.495867768595</v>
+        <v>40.983606557377</v>
       </c>
       <c r="BE8" t="n">
         <v>82</v>
       </c>
       <c r="BF8" t="n">
-        <v>68.90756302521</v>
+        <v>68.333333333333</v>
       </c>
       <c r="BG8" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="BH8" t="n">
         <v>41</v>
       </c>
       <c r="BI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BJ8" t="n">
         <v>2</v>
@@ -3357,22 +3357,22 @@
         <v>4</v>
       </c>
       <c r="BO8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>142</v>
+        <v>148.4</v>
       </c>
       <c r="BR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS8" t="n">
         <v>3</v>
       </c>
       <c r="BT8" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CK8" t="n">
         <v>5</v>
@@ -3453,10 +3453,10 @@
         <v>2</v>
       </c>
       <c r="CU8" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CV8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="DG8" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,40 +3527,40 @@
         <v>357596</v>
       </c>
       <c r="E9" t="n">
-        <v>6.8826086956522</v>
+        <v>6.8791666666667</v>
       </c>
       <c r="F9" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" t="n">
         <v>23</v>
       </c>
-      <c r="G9" t="n">
-        <v>22</v>
-      </c>
       <c r="H9" t="n">
-        <v>1808</v>
+        <v>1898</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1717</v>
+        <v>4.3348</v>
       </c>
       <c r="L9" t="n">
-        <v>361.6</v>
+        <v>316.33333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>18.518518518519</v>
+        <v>20.689655172414</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -3593,10 +3593,10 @@
         <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.83086412</v>
+        <v>1.85492882</v>
       </c>
       <c r="AB9" t="n">
-        <v>976</v>
+        <v>1020</v>
       </c>
       <c r="AC9" t="n">
         <v>2</v>
@@ -3605,55 +3605,55 @@
         <v>30</v>
       </c>
       <c r="AE9" t="n">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="AF9" t="n">
-        <v>82.588597842835</v>
+        <v>82.890855457227</v>
       </c>
       <c r="AG9" t="n">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="AH9" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AI9" t="n">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AJ9" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>56.410256410256</v>
+        <v>58.139534883721</v>
       </c>
       <c r="AM9" t="n">
         <v>8</v>
       </c>
       <c r="AN9" t="n">
-        <v>27.586206896552</v>
+        <v>26.666666666667</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AQ9" t="n">
         <v>11</v>
       </c>
       <c r="AR9" t="n">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AS9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT9" t="n">
         <v>17</v>
       </c>
       <c r="AU9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -3665,43 +3665,43 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ9" t="n">
-        <v>48.571428571429</v>
+        <v>50</v>
       </c>
       <c r="BA9" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="BB9" t="n">
-        <v>44.600938967136</v>
+        <v>45.982142857143</v>
       </c>
       <c r="BC9" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="BD9" t="n">
-        <v>47.428571428571</v>
+        <v>48.913043478261</v>
       </c>
       <c r="BE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF9" t="n">
-        <v>31.578947368421</v>
+        <v>32.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="BH9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BI9" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BJ9" t="n">
         <v>4</v>
       </c>
       <c r="BK9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL9" t="n">
         <v>0</v>
@@ -3713,22 +3713,22 @@
         <v>5</v>
       </c>
       <c r="BO9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>158.3</v>
+        <v>165.1</v>
       </c>
       <c r="BR9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT9" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3743,25 +3743,25 @@
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB9" t="n">
         <v>31</v>
       </c>
       <c r="CC9" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="CD9" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CK9" t="n">
         <v>6</v>
@@ -3803,16 +3803,16 @@
         <v>30</v>
       </c>
       <c r="CS9" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CT9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CU9" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="CV9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="DA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DB9" t="n">
-        <v>53.846153846154</v>
+        <v>53.658536585366</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="DG9" t="n">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -4237,16 +4237,16 @@
         <v>1030829</v>
       </c>
       <c r="E11" t="n">
-        <v>6.73125</v>
+        <v>6.7176470588235</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>780</v>
+        <v>834</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4303,49 +4303,49 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.48558669</v>
+        <v>1.53912289</v>
       </c>
       <c r="AB11" t="n">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="AC11" t="n">
         <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AF11" t="n">
-        <v>71.428571428571</v>
+        <v>72.619047619048</v>
       </c>
       <c r="AG11" t="n">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="AH11" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
-        <v>23.076923076923</v>
+        <v>25.925925925926</v>
       </c>
       <c r="AM11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN11" t="n">
-        <v>43.243243243243</v>
+        <v>41.463414634146</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -4357,7 +4357,7 @@
         <v>29</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT11" t="n">
         <v>9</v>
@@ -4381,37 +4381,37 @@
         <v>63.636363636364</v>
       </c>
       <c r="BA11" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="BB11" t="n">
-        <v>54.128440366972</v>
+        <v>53.846153846154</v>
       </c>
       <c r="BC11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BD11" t="n">
-        <v>53.488372093023</v>
+        <v>51.648351648352</v>
       </c>
       <c r="BE11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BF11" t="n">
-        <v>56.521739130435</v>
+        <v>61.538461538462</v>
       </c>
       <c r="BG11" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="BH11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BI11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>107.7</v>
+        <v>114.2</v>
       </c>
       <c r="BR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS11" t="n">
         <v>1</v>
       </c>
       <c r="BT11" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4465,10 +4465,10 @@
         <v>8</v>
       </c>
       <c r="CC11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CD11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK11" t="n">
         <v>2</v>
@@ -4510,16 +4510,16 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CS11" t="n">
         <v>11</v>
       </c>
       <c r="CT11" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="CU11" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="CV11" t="n">
         <v>10</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="DA11" t="n">
         <v>15</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="DG11" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>233826</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7652173913043</v>
+        <v>6.7666666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>1733</v>
+        <v>1778</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5015,64 +5015,64 @@
         <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.26492783</v>
+        <v>2.60796383</v>
       </c>
       <c r="AB13" t="n">
-        <v>1094</v>
+        <v>1119</v>
       </c>
       <c r="AC13" t="n">
         <v>3</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="AF13" t="n">
-        <v>79.192546583851</v>
+        <v>78.93939393939399</v>
       </c>
       <c r="AG13" t="n">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="AH13" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AI13" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AJ13" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>39.473684210526</v>
+        <v>38.961038961039</v>
       </c>
       <c r="AM13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>24.242424242424</v>
+        <v>26.470588235294</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AQ13" t="n">
         <v>10</v>
       </c>
       <c r="AR13" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AS13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -5093,25 +5093,25 @@
         <v>42.857142857143</v>
       </c>
       <c r="BA13" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BB13" t="n">
-        <v>45.205479452055</v>
+        <v>46</v>
       </c>
       <c r="BC13" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BD13" t="n">
-        <v>46.153846153846</v>
+        <v>46.218487394958</v>
       </c>
       <c r="BE13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BF13" t="n">
-        <v>41.379310344828</v>
+        <v>45.161290322581</v>
       </c>
       <c r="BG13" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="BH13" t="n">
         <v>29</v>
@@ -5135,22 +5135,22 @@
         <v>6</v>
       </c>
       <c r="BO13" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>155.6</v>
+        <v>162.4</v>
       </c>
       <c r="BR13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS13" t="n">
         <v>2</v>
       </c>
       <c r="BT13" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="CC13" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CD13" t="n">
         <v>23</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CK13" t="n">
         <v>7</v>
@@ -5222,16 +5222,16 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CS13" t="n">
         <v>21</v>
       </c>
       <c r="CT13" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="CU13" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CV13" t="n">
         <v>17</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DA13" t="n">
         <v>20</v>
       </c>
       <c r="DB13" t="n">
-        <v>55.555555555556</v>
+        <v>54.054054054054</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="DG13" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>1142612</v>
       </c>
       <c r="E14" t="n">
-        <v>6.83</v>
+        <v>6.8181818181818</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5371,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.39174316</v>
+        <v>0.39996409</v>
       </c>
       <c r="AB14" t="n">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
@@ -5383,28 +5383,28 @@
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AF14" t="n">
-        <v>84.426229508197</v>
+        <v>84.79087452471499</v>
       </c>
       <c r="AG14" t="n">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="AH14" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL14" t="n">
-        <v>78.947368421053</v>
+        <v>75.609756097561</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
@@ -5416,13 +5416,13 @@
         <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ14" t="n">
         <v>2</v>
       </c>
       <c r="AR14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AS14" t="n">
         <v>6</v>
@@ -5449,112 +5449,112 @@
         <v>50</v>
       </c>
       <c r="BA14" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BB14" t="n">
-        <v>53.125</v>
+        <v>53.623188405797</v>
       </c>
       <c r="BC14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BD14" t="n">
-        <v>56.862745098039</v>
+        <v>58.181818181818</v>
       </c>
       <c r="BE14" t="n">
         <v>5</v>
       </c>
       <c r="BF14" t="n">
-        <v>38.461538461538</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BG14" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="BH14" t="n">
         <v>7</v>
       </c>
       <c r="BI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>75</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>40</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>39</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>26</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
         <v>12</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>10</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>38</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA14" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB14" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>37</v>
-      </c>
-      <c r="CD14" t="n">
-        <v>25</v>
-      </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>11</v>
       </c>
       <c r="CK14" t="n">
         <v>2</v>
@@ -5587,10 +5587,10 @@
         <v>1</v>
       </c>
       <c r="CU14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CV14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5602,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="DA14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB14" t="n">
-        <v>66.666666666667</v>
+        <v>64.28571428571399</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5620,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="DG14" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>1111640</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6095238095238</v>
+        <v>6.6</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>1293</v>
+        <v>1347</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>1.076</v>
       </c>
       <c r="L15" t="n">
-        <v>1293</v>
+        <v>1347</v>
       </c>
       <c r="M15" t="n">
         <v>21</v>
@@ -5727,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.51059327</v>
+        <v>0.53750217</v>
       </c>
       <c r="AB15" t="n">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="AC15" t="n">
         <v>4</v>
@@ -5739,28 +5739,28 @@
         <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="AF15" t="n">
-        <v>79.892280071813</v>
+        <v>79.863481228669</v>
       </c>
       <c r="AG15" t="n">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="AH15" t="n">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="AI15" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AJ15" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AK15" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>45.882352941176</v>
+        <v>45.555555555556</v>
       </c>
       <c r="AM15" t="n">
         <v>5</v>
@@ -5778,13 +5778,13 @@
         <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AU15" t="n">
         <v>7</v>
@@ -5808,13 +5808,13 @@
         <v>38</v>
       </c>
       <c r="BB15" t="n">
-        <v>48.101265822785</v>
+        <v>46.341463414634</v>
       </c>
       <c r="BC15" t="n">
         <v>30</v>
       </c>
       <c r="BD15" t="n">
-        <v>50</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BE15" t="n">
         <v>8</v>
@@ -5823,10 +5823,10 @@
         <v>42.105263157895</v>
       </c>
       <c r="BG15" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="BH15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI15" t="n">
         <v>3</v>
@@ -5847,22 +5847,22 @@
         <v>1</v>
       </c>
       <c r="BO15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>138.8</v>
+        <v>145.2</v>
       </c>
       <c r="BR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5889,10 +5889,10 @@
         <v>1</v>
       </c>
       <c r="CC15" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="CD15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CK15" t="n">
         <v>2</v>
@@ -5943,7 +5943,7 @@
         <v>13</v>
       </c>
       <c r="CU15" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="CV15" t="n">
         <v>11</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="DA15" t="n">
         <v>11</v>
@@ -5976,16 +5976,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="DG15" t="n">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ15" t="n">
         <v>2170181</v>
@@ -6373,16 +6373,16 @@
         <v>339909</v>
       </c>
       <c r="E17" t="n">
-        <v>6.9318181818182</v>
+        <v>6.9086956521739</v>
       </c>
       <c r="F17" t="n">
+        <v>23</v>
+      </c>
+      <c r="G17" t="n">
         <v>22</v>
       </c>
-      <c r="G17" t="n">
-        <v>21</v>
-      </c>
       <c r="H17" t="n">
-        <v>1891</v>
+        <v>1981</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
@@ -6391,13 +6391,13 @@
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1.51</v>
+        <v>1.5728</v>
       </c>
       <c r="L17" t="n">
-        <v>945.5</v>
+        <v>990.5</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N17" t="n">
         <v>8</v>
@@ -6406,7 +6406,7 @@
         <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>11.764705882353</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6439,10 +6439,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.4663198</v>
+        <v>0.46772325</v>
       </c>
       <c r="AB17" t="n">
-        <v>1191</v>
+        <v>1249</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6451,28 +6451,28 @@
         <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>727</v>
+        <v>763</v>
       </c>
       <c r="AF17" t="n">
-        <v>85.029239766082</v>
+        <v>84.872080088988</v>
       </c>
       <c r="AG17" t="n">
-        <v>855</v>
+        <v>899</v>
       </c>
       <c r="AH17" t="n">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="AI17" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="AJ17" t="n">
         <v>70</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AL17" t="n">
-        <v>48.809523809524</v>
+        <v>47.252747252747</v>
       </c>
       <c r="AM17" t="n">
         <v>1</v>
@@ -6481,25 +6481,25 @@
         <v>33.333333333333</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AQ17" t="n">
         <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AU17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
         <v>1</v>
@@ -6517,37 +6517,37 @@
         <v>60</v>
       </c>
       <c r="BA17" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="BB17" t="n">
-        <v>55.940594059406</v>
+        <v>54.929577464789</v>
       </c>
       <c r="BC17" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BD17" t="n">
-        <v>58.163265306122</v>
+        <v>55.660377358491</v>
       </c>
       <c r="BE17" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BF17" t="n">
-        <v>53.846153846154</v>
+        <v>54.205607476636</v>
       </c>
       <c r="BG17" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="BH17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BI17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ17" t="n">
         <v>2</v>
       </c>
       <c r="BK17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6559,22 +6559,22 @@
         <v>9</v>
       </c>
       <c r="BO17" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>152.5</v>
+        <v>158.9</v>
       </c>
       <c r="BR17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6592,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CA17" t="n">
         <v>2</v>
@@ -6601,10 +6601,10 @@
         <v>9</v>
       </c>
       <c r="CC17" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="CD17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CK17" t="n">
         <v>6</v>
@@ -6655,10 +6655,10 @@
         <v>3</v>
       </c>
       <c r="CU17" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="CV17" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="DA17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="DB17" t="n">
-        <v>57.142857142857</v>
+        <v>58</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="DG17" t="n">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="DH17" t="n">
         <v>17</v>
@@ -7439,16 +7439,16 @@
         <v>1089453</v>
       </c>
       <c r="E20" t="n">
-        <v>6.9571428571429</v>
+        <v>6.9272727272727</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -7457,13 +7457,13 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7315</v>
+        <v>0.7419</v>
       </c>
       <c r="L20" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="M20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N20" t="n">
         <v>4</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>8.3333333333333</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7505,10 +7505,10 @@
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.30471286</v>
+        <v>0.30783377</v>
       </c>
       <c r="AB20" t="n">
-        <v>1203</v>
+        <v>1264</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7517,28 +7517,28 @@
         <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>770</v>
+        <v>811</v>
       </c>
       <c r="AF20" t="n">
-        <v>87.10407239819</v>
+        <v>86.83083511777301</v>
       </c>
       <c r="AG20" t="n">
-        <v>884</v>
+        <v>934</v>
       </c>
       <c r="AH20" t="n">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="AI20" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AJ20" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>50.505050505051</v>
+        <v>48.11320754717</v>
       </c>
       <c r="AM20" t="n">
         <v>1</v>
@@ -7550,19 +7550,19 @@
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AS20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT20" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AU20" t="n">
         <v>3</v>
@@ -7577,22 +7577,22 @@
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>66.666666666667</v>
+        <v>75</v>
       </c>
       <c r="BA20" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BB20" t="n">
-        <v>57.920792079208</v>
+        <v>58.454106280193</v>
       </c>
       <c r="BC20" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="BD20" t="n">
-        <v>60.36036036036</v>
+        <v>61.206896551724</v>
       </c>
       <c r="BE20" t="n">
         <v>50</v>
@@ -7601,7 +7601,7 @@
         <v>54.945054945055</v>
       </c>
       <c r="BG20" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="BH20" t="n">
         <v>29</v>
@@ -7625,28 +7625,28 @@
         <v>8</v>
       </c>
       <c r="BO20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>146.1</v>
+        <v>152.4</v>
       </c>
       <c r="BR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS20" t="n">
         <v>2</v>
       </c>
       <c r="BT20" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
       </c>
       <c r="BV20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -7661,13 +7661,13 @@
         <v>9</v>
       </c>
       <c r="CA20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB20" t="n">
         <v>4</v>
       </c>
       <c r="CC20" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="CD20" t="n">
         <v>22</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CK20" t="n">
         <v>5</v>
@@ -7715,13 +7715,13 @@
         <v>7</v>
       </c>
       <c r="CS20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CT20" t="n">
         <v>3</v>
       </c>
       <c r="CU20" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="CV20" t="n">
         <v>41</v>
@@ -7736,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="DA20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DB20" t="n">
-        <v>65.71428571428601</v>
+        <v>64.864864864865</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7754,16 +7754,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="DG20" t="n">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="DH20" t="n">
         <v>29</v>
       </c>
       <c r="DI20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="DJ20" t="n">
         <v>2176278</v>
@@ -8151,16 +8151,16 @@
         <v>1165371</v>
       </c>
       <c r="E22" t="n">
-        <v>6.825</v>
+        <v>6.68</v>
       </c>
       <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="n">
-        <v>3</v>
-      </c>
       <c r="H22" t="n">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8217,40 +8217,40 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.09637585999999999</v>
+        <v>0.10299834</v>
       </c>
       <c r="AB22" t="n">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="AC22" t="n">
         <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="n">
-        <v>88.12785388127899</v>
+        <v>85.490196078431</v>
       </c>
       <c r="AG22" t="n">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="AH22" t="n">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="AI22" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>65.384615384615</v>
+        <v>59.375</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
@@ -8259,172 +8259,172 @@
         <v>66.666666666667</v>
       </c>
       <c r="AO22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>35.897435897436</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>39.285714285714</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>27.272727272727</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>46</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="BR22" t="n">
         <v>5</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="BS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>37</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>15</v>
+      </c>
+      <c r="CD22" t="n">
         <v>8</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>36.363636363636</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>32</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO22" t="n">
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
         <v>4</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>26</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>13</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>3</v>
       </c>
       <c r="CS22" t="n">
         <v>1</v>
@@ -8433,28 +8433,28 @@
         <v>3</v>
       </c>
       <c r="CU22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CV22" t="n">
+        <v>8</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>32</v>
+      </c>
+      <c r="DA22" t="n">
         <v>6</v>
       </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>5</v>
-      </c>
       <c r="DB22" t="n">
-        <v>62.5</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8466,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="DG22" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -8507,16 +8507,16 @@
         <v>934409</v>
       </c>
       <c r="E23" t="n">
-        <v>6.5166666666667</v>
+        <v>6.5210526315789</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" t="n">
-        <v>1385</v>
+        <v>1475</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.56346159</v>
+        <v>1.62327929</v>
       </c>
       <c r="AB23" t="n">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="AC23" t="n">
         <v>2</v>
@@ -8585,52 +8585,52 @@
         <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="AF23" t="n">
-        <v>75.765306122449</v>
+        <v>76.20192307692299</v>
       </c>
       <c r="AG23" t="n">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="AH23" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AI23" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AJ23" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>30.232558139535</v>
+        <v>32.608695652174</v>
       </c>
       <c r="AM23" t="n">
         <v>14</v>
       </c>
       <c r="AN23" t="n">
-        <v>19.178082191781</v>
+        <v>18.918918918919</v>
       </c>
       <c r="AO23" t="n">
         <v>7</v>
       </c>
       <c r="AP23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ23" t="n">
         <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS23" t="n">
         <v>12</v>
       </c>
       <c r="AT23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU23" t="n">
         <v>3</v>
@@ -8645,31 +8645,31 @@
         <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ23" t="n">
-        <v>50</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BA23" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BB23" t="n">
-        <v>33.333333333333</v>
+        <v>33.980582524272</v>
       </c>
       <c r="BC23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD23" t="n">
-        <v>35.443037974684</v>
+        <v>37.037037037037</v>
       </c>
       <c r="BE23" t="n">
         <v>5</v>
       </c>
       <c r="BF23" t="n">
-        <v>25</v>
+        <v>22.727272727273</v>
       </c>
       <c r="BG23" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="BH23" t="n">
         <v>22</v>
@@ -8678,7 +8678,7 @@
         <v>4</v>
       </c>
       <c r="BJ23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK23" t="n">
         <v>3</v>
@@ -8693,22 +8693,22 @@
         <v>7</v>
       </c>
       <c r="BO23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>117.3</v>
+        <v>123.9</v>
       </c>
       <c r="BR23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8735,10 +8735,10 @@
         <v>10</v>
       </c>
       <c r="CC23" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="CD23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CK23" t="n">
         <v>7</v>
@@ -8783,16 +8783,16 @@
         <v>10</v>
       </c>
       <c r="CS23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="CU23" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="CV23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8804,13 +8804,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="DA23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="DB23" t="n">
-        <v>62.5</v>
+        <v>64.705882352941</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8822,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="DG23" t="n">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -9931,16 +9931,16 @@
         <v>259281</v>
       </c>
       <c r="E27" t="n">
-        <v>7.06</v>
+        <v>7.1</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -9995,10 +9995,10 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.04696628</v>
+        <v>0.05039097</v>
       </c>
       <c r="AB27" t="n">
-        <v>637</v>
+        <v>687</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -10007,28 +10007,28 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="AF27" t="n">
-        <v>62.985685071575</v>
+        <v>64.69465648855</v>
       </c>
       <c r="AG27" t="n">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="AH27" t="n">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="AI27" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AK27" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AL27" t="n">
-        <v>39.527027027027</v>
+        <v>39.802631578947</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -10046,13 +10046,13 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AS27" t="n">
         <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>88.888888888889</v>
       </c>
       <c r="BG27" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
@@ -10109,76 +10109,76 @@
         <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="BN27" t="n">
         <v>6</v>
       </c>
       <c r="BO27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BP27" t="n">
         <v>0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>105.9</v>
+        <v>113.6</v>
       </c>
       <c r="BR27" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>185</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>31</v>
+      </c>
+      <c r="CD27" t="n">
         <v>15</v>
       </c>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>181</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC27" t="n">
+      <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH27" t="n">
         <v>28</v>
       </c>
-      <c r="CD27" t="n">
-        <v>13</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH27" t="n">
-        <v>24</v>
-      </c>
       <c r="CI27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CJ27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CK27" t="n">
         <v>5</v>
@@ -10187,10 +10187,10 @@
         <v>9</v>
       </c>
       <c r="CM27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CN27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CO27" t="n">
         <v>16</v>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="DA27" t="n">
         <v>0</v>
@@ -10241,16 +10241,16 @@
         <v>1</v>
       </c>
       <c r="DE27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DF27" t="n">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="DG27" t="n">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="DH27" t="n">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="DL27" t="n">
-        <v>-1.3025</v>
+        <v>-1.2753</v>
       </c>
     </row>
   </sheetData>
